--- a/demo/calendar3.xlsx
+++ b/demo/calendar3.xlsx
@@ -263,24 +263,26 @@
     </font>
     <font>
       <name val="Comic Sans MS"/>
-      <color rgb="00FF0000"/>
-      <sz val="20"/>
+      <color rgb="00000000"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Comic Sans MS"/>
-      <color rgb="00000000"/>
-      <sz val="20"/>
+      <color rgb="00FF0000"/>
+      <sz val="24"/>
     </font>
     <font>
       <name val="Comic Sans MS"/>
       <color rgb="000000FF"/>
-      <sz val="20"/>
+      <sz val="24"/>
     </font>
     <font>
       <color rgb="00FF0000"/>
-    </font>
-    <font>
-      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,25 +348,25 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,9 +834,9 @@
       <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
       <c r="L4" s="10" t="s">
         <v>18</v>
       </c>
@@ -847,9 +849,9 @@
       <c r="O4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="n"/>
+      <c r="S4" s="11" t="n"/>
       <c r="T4" s="10" t="s">
         <v>19</v>
       </c>
@@ -1086,7 +1088,7 @@
       <c r="J8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -1310,10 +1312,10 @@
       <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10" t="n"/>
-      <c r="E12" s="10" t="n"/>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="10" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="n"/>
       <c r="I12" s="10" t="s">
         <v>42</v>
       </c>
@@ -1323,10 +1325,10 @@
       <c r="K12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="10" t="n"/>
-      <c r="M12" s="10" t="n"/>
-      <c r="N12" s="10" t="n"/>
-      <c r="O12" s="10" t="n"/>
+      <c r="L12" s="11" t="n"/>
+      <c r="M12" s="11" t="n"/>
+      <c r="N12" s="11" t="n"/>
+      <c r="O12" s="11" t="n"/>
       <c r="Q12" s="10" t="s">
         <v>41</v>
       </c>
@@ -1345,7 +1347,7 @@
       <c r="V12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="W12" s="10" t="n"/>
+      <c r="W12" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1495,16 +1497,16 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
-      <c r="D4" s="10" t="n"/>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="10" t="n"/>
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n"/>
       <c r="G4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
       <c r="J4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1523,10 +1525,10 @@
       <c r="O4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
-      <c r="T4" s="10" t="n"/>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="n"/>
+      <c r="S4" s="11" t="n"/>
+      <c r="T4" s="11" t="n"/>
       <c r="U4" s="10" t="s">
         <v>51</v>
       </c>
@@ -2018,9 +2020,9 @@
       <c r="L12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="10" t="n"/>
-      <c r="N12" s="10" t="n"/>
-      <c r="O12" s="10" t="n"/>
+      <c r="M12" s="11" t="n"/>
+      <c r="N12" s="11" t="n"/>
+      <c r="O12" s="11" t="n"/>
       <c r="Q12" s="10" t="s">
         <v>43</v>
       </c>
@@ -2039,7 +2041,7 @@
       <c r="V12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="W12" s="10" t="n"/>
+      <c r="W12" s="11" t="n"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="6" t="n">
@@ -2056,12 +2058,12 @@
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="10" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="10" t="n"/>
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2207,17 +2209,17 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
-      <c r="D4" s="10" t="n"/>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="10" t="n"/>
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n"/>
       <c r="G4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
       <c r="K4" s="10" t="s">
         <v>59</v>
       </c>
@@ -2233,11 +2235,11 @@
       <c r="O4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
-      <c r="T4" s="10" t="n"/>
-      <c r="U4" s="10" t="n"/>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="n"/>
+      <c r="S4" s="11" t="n"/>
+      <c r="T4" s="11" t="n"/>
+      <c r="U4" s="11" t="n"/>
       <c r="V4" s="10" t="s">
         <v>60</v>
       </c>
@@ -2733,8 +2735,8 @@
       <c r="M12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="10" t="n"/>
-      <c r="O12" s="10" t="n"/>
+      <c r="N12" s="11" t="n"/>
+      <c r="O12" s="11" t="n"/>
       <c r="Q12" s="10" t="s">
         <v>20</v>
       </c>
@@ -2784,18 +2786,18 @@
       <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="10" t="n"/>
-      <c r="Q14" s="10" t="n"/>
-      <c r="R14" s="10" t="n"/>
-      <c r="S14" s="10" t="n"/>
-      <c r="T14" s="10" t="n"/>
-      <c r="U14" s="10" t="n"/>
-      <c r="V14" s="10" t="n"/>
-      <c r="W14" s="10" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="Q14" s="11" t="n"/>
+      <c r="R14" s="11" t="n"/>
+      <c r="S14" s="11" t="n"/>
+      <c r="T14" s="11" t="n"/>
+      <c r="U14" s="11" t="n"/>
+      <c r="V14" s="11" t="n"/>
+      <c r="W14" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2972,9 +2974,9 @@
       <c r="G4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
       <c r="L4" s="10" t="s">
         <v>65</v>
       </c>
@@ -2987,11 +2989,11 @@
       <c r="O4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
-      <c r="T4" s="10" t="n"/>
-      <c r="U4" s="10" t="n"/>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="n"/>
+      <c r="S4" s="11" t="n"/>
+      <c r="T4" s="11" t="n"/>
+      <c r="U4" s="11" t="n"/>
       <c r="V4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3452,10 +3454,10 @@
       <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="n"/>
-      <c r="E12" s="10" t="n"/>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="10" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="n"/>
       <c r="I12" s="10" t="s">
         <v>16</v>
       </c>
@@ -3471,8 +3473,8 @@
       <c r="M12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="10" t="n"/>
-      <c r="O12" s="10" t="n"/>
+      <c r="N12" s="11" t="n"/>
+      <c r="O12" s="11" t="n"/>
       <c r="Q12" s="10" t="s">
         <v>14</v>
       </c>
@@ -3510,12 +3512,12 @@
       <c r="Q14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="10" t="n"/>
-      <c r="S14" s="10" t="n"/>
-      <c r="T14" s="10" t="n"/>
-      <c r="U14" s="10" t="n"/>
-      <c r="V14" s="10" t="n"/>
-      <c r="W14" s="10" t="n"/>
+      <c r="R14" s="11" t="n"/>
+      <c r="S14" s="11" t="n"/>
+      <c r="T14" s="11" t="n"/>
+      <c r="U14" s="11" t="n"/>
+      <c r="V14" s="11" t="n"/>
+      <c r="W14" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
